--- a/Technology/Software/Tyler Technologies.xlsx
+++ b/Technology/Software/Tyler Technologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE848F2-6E80-FD4C-9500-AD7293ED6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E4A75-E57D-1E4B-8A34-FAF3FF7F0E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,17 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2505,37 +2505,37 @@
     <v>Powered by Refinitiv</v>
     <v>425.80500000000001</v>
     <v>281.11</v>
-    <v>0.8357</v>
-    <v>-1.67</v>
-    <v>-4.4529999999999995E-3</v>
-    <v>-0.72</v>
-    <v>-1.928E-3</v>
+    <v>0.83499999999999996</v>
+    <v>-5.73</v>
+    <v>-1.4333E-2</v>
+    <v>0.49</v>
+    <v>1.2439999999999999E-3</v>
     <v>USD</v>
     <v>Tyler Technologies, Inc. is a provider of information management solutions and services for the public sector. Its segments include Enterprise Software (ES) segment, which provides public sector entities with software systems and services to meet their information technology and automation needs for mission-critical back-office functions, such as financial management and education; planning, regulatory and maintenance; courts and justice; public safety; data and insights; appraisal and tax software solutions; land and vital records management software solutions; and property appraisal services, and Platform Technologies (PT) segment, which provides public sector entities with software solutions to perform transaction processing, streamline data processing, and improve operations and workflows such as digital government and payments solutions and development platform solutions. It provides systems and software that automate the appraisal and assessment of real and personal property.</v>
-    <v>7200</v>
+    <v>7229</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5101 Tennyson Pkwy, PLANO, TX, 75024 US</v>
-    <v>379.2</v>
+    <v>400</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.998833286721</v>
+    <v>45065.940957245315</v>
     <v>0</v>
-    <v>373.30250000000001</v>
-    <v>15643300000</v>
+    <v>392.48</v>
+    <v>16520253092</v>
     <v>TYLER TECHNOLOGIES, INC.</v>
     <v>TYLER TECHNOLOGIES, INC.</v>
-    <v>377.2</v>
-    <v>96.775899999999993</v>
-    <v>375.06</v>
-    <v>373.39</v>
-    <v>372.67</v>
-    <v>41895330</v>
+    <v>399.77</v>
+    <v>109.23099999999999</v>
+    <v>399.77</v>
+    <v>394.04</v>
+    <v>394.53</v>
+    <v>41925320</v>
     <v>TYL</v>
     <v>TYLER TECHNOLOGIES, INC. (XNYS:TYL)</v>
-    <v>248311</v>
-    <v>238748</v>
+    <v>224569</v>
+    <v>248766</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -3123,10 +3123,10 @@
   <dimension ref="A1:AS118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL98" sqref="AL98"/>
+      <selection pane="bottomRight" activeCell="AL100" sqref="AL100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5188,15 +5188,15 @@
       </c>
       <c r="AQ16" s="30">
         <f>AR101/AJ3</f>
-        <v>8.4549055131217958</v>
+        <v>8.9288819459908204</v>
       </c>
       <c r="AR16" s="30">
         <f>AR101/AJ28</f>
-        <v>95.246590355577197</v>
+        <v>100.58605146127618</v>
       </c>
       <c r="AS16" s="31">
         <f>AR101/AJ106</f>
-        <v>43.583635624056214</v>
+        <v>46.026905523701267</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -12706,10 +12706,10 @@
       <c r="AJ83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ83" s="57" t="s">
+      <c r="AQ83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AR83" s="58"/>
+      <c r="AR83" s="63"/>
     </row>
     <row r="84" spans="1:44" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12820,10 +12820,10 @@
       <c r="AJ84" s="1">
         <v>-17537000</v>
       </c>
-      <c r="AQ84" s="59" t="s">
+      <c r="AQ84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AR84" s="60"/>
+      <c r="AR84" s="65"/>
     </row>
     <row r="85" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13905,10 +13905,10 @@
       <c r="AJ93" s="1">
         <v>-98258000</v>
       </c>
-      <c r="AQ93" s="59" t="s">
+      <c r="AQ93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AR93" s="60"/>
+      <c r="AR93" s="65"/>
     </row>
     <row r="94" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14135,12 +14135,12 @@
       <c r="AJ95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ95" s="63" t="s">
+      <c r="AQ95" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AR95" s="65" cm="1">
+      <c r="AR95" s="59" cm="1">
         <f t="array" ref="AR95">_FV(A1,"Beta")</f>
-        <v>0.8357</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14373,7 +14373,7 @@
       </c>
       <c r="AR97" s="36">
         <f>(AR94)+((AR95)*(AR96-AR94))</f>
-        <v>7.6926885E-2</v>
+        <v>7.689675E-2</v>
       </c>
     </row>
     <row r="98" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14485,10 +14485,10 @@
       <c r="AJ98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ98" s="59" t="s">
+      <c r="AQ98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AR98" s="60"/>
+      <c r="AR98" s="65"/>
     </row>
     <row r="99" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="AR100" s="34">
         <f>AR99/AR103</f>
-        <v>4.1850127849886891E-2</v>
+        <v>3.9716808938661141E-2</v>
       </c>
     </row>
     <row r="101" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14833,12 +14833,12 @@
       <c r="AJ101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AQ101" s="63" t="s">
+      <c r="AQ101" s="57" t="s">
         <v>142</v>
       </c>
       <c r="AR101" s="50" cm="1">
         <f t="array" ref="AR101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15643300000</v>
+        <v>16520253092</v>
       </c>
     </row>
     <row r="102" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14955,7 +14955,7 @@
       </c>
       <c r="AR102" s="34">
         <f>AR101/AR103</f>
-        <v>0.95814987215011316</v>
+        <v>0.96028319106133886</v>
       </c>
     </row>
     <row r="103" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="AR103" s="38">
         <f>AR99+AR101</f>
-        <v>16326569000</v>
+        <v>17203522092</v>
       </c>
     </row>
     <row r="104" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15184,10 +15184,10 @@
       <c r="AJ104" s="11">
         <v>173857000</v>
       </c>
-      <c r="AQ104" s="59" t="s">
+      <c r="AQ104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AR104" s="60"/>
+      <c r="AR104" s="65"/>
     </row>
     <row r="105" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15341,7 +15341,7 @@
       </c>
       <c r="AR105" s="26">
         <f>(AR100*AR92)+(AR102*AR97)</f>
-        <v>7.5229309163188124E-2</v>
+        <v>7.5286905308138585E-2</v>
       </c>
     </row>
     <row r="106" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15527,7 +15527,7 @@
       <c r="AN107" s="40"/>
       <c r="AO107" s="43">
         <f>AO106*(1+AR107)/(AR108-AR107)</f>
-        <v>10531726066.90016</v>
+        <v>10519663546.500252</v>
       </c>
       <c r="AP107" s="44" t="s">
         <v>148</v>
@@ -15558,7 +15558,7 @@
       </c>
       <c r="AO108" s="43">
         <f>AO107+AO106</f>
-        <v>11047824920.203901</v>
+        <v>11035762399.803993</v>
       </c>
       <c r="AP108" s="44" t="s">
         <v>144</v>
@@ -15568,14 +15568,14 @@
       </c>
       <c r="AR108" s="48">
         <f>AR105</f>
-        <v>7.5229309163188124E-2</v>
+        <v>7.5286905308138585E-2</v>
       </c>
     </row>
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.25">
-      <c r="AK109" s="61" t="s">
+      <c r="AK109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AL109" s="62"/>
+      <c r="AL109" s="61"/>
     </row>
     <row r="110" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="AK110" s="49" t="s">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="AL110" s="50">
         <f>NPV(AR108,AK108,AL108,AM108,AN108,AO108)</f>
-        <v>9123327281.1575832</v>
+        <v>9112685368.0936165</v>
       </c>
     </row>
     <row r="111" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15610,7 +15610,7 @@
       </c>
       <c r="AL113" s="50">
         <f>AL110+AL111-AL112</f>
-        <v>8650945281.1575832</v>
+        <v>8640303368.0936165</v>
       </c>
     </row>
     <row r="114" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15628,16 +15628,16 @@
       </c>
       <c r="AL115" s="53">
         <f>AL113/AL114</f>
-        <v>190.56521293011508</v>
+        <v>190.33079017478502</v>
       </c>
     </row>
     <row r="116" spans="37:38" ht="20" x14ac:dyDescent="0.25">
       <c r="AK116" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AL116" s="64" cm="1">
+      <c r="AL116" s="58" cm="1">
         <f t="array" ref="AL116">_FV(A1,"Price")</f>
-        <v>373.39</v>
+        <v>394.04</v>
       </c>
     </row>
     <row r="117" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="AL117" s="55">
         <f>AL115/AL116-1</f>
-        <v>-0.48963493149223314</v>
+        <v>-0.51697596646334132</v>
       </c>
     </row>
     <row r="118" spans="37:38" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Tyler Technologies.xlsx
+++ b/Technology/Software/Tyler Technologies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E4A75-E57D-1E4B-8A34-FAF3FF7F0E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567BB9AA-C5ED-AF49-9428-5E5003155AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2505,11 +2505,11 @@
     <v>Powered by Refinitiv</v>
     <v>425.80500000000001</v>
     <v>281.11</v>
-    <v>0.83499999999999996</v>
-    <v>-5.73</v>
-    <v>-1.4333E-2</v>
-    <v>0.49</v>
-    <v>1.2439999999999999E-3</v>
+    <v>0.83550000000000002</v>
+    <v>6.32</v>
+    <v>1.6319E-2</v>
+    <v>-0.01</v>
+    <v>-2.5409999999999999E-5</v>
     <v>USD</v>
     <v>Tyler Technologies, Inc. is a provider of information management solutions and services for the public sector. Its segments include Enterprise Software (ES) segment, which provides public sector entities with software systems and services to meet their information technology and automation needs for mission-critical back-office functions, such as financial management and education; planning, regulatory and maintenance; courts and justice; public safety; data and insights; appraisal and tax software solutions; land and vital records management software solutions; and property appraisal services, and Platform Technologies (PT) segment, which provides public sector entities with software solutions to perform transaction processing, streamline data processing, and improve operations and workflows such as digital government and payments solutions and development platform solutions. It provides systems and software that automate the appraisal and assessment of real and personal property.</v>
     <v>7229</v>
@@ -2517,25 +2517,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5101 Tennyson Pkwy, PLANO, TX, 75024 US</v>
-    <v>400</v>
+    <v>395.81</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.940957245315</v>
+    <v>45072.958333356248</v>
     <v>0</v>
-    <v>392.48</v>
-    <v>16520253092</v>
+    <v>389.73</v>
+    <v>16501800000</v>
     <v>TYLER TECHNOLOGIES, INC.</v>
     <v>TYLER TECHNOLOGIES, INC.</v>
-    <v>399.77</v>
-    <v>109.23099999999999</v>
-    <v>399.77</v>
-    <v>394.04</v>
-    <v>394.53</v>
+    <v>389.73</v>
+    <v>105.81829999999999</v>
+    <v>387.28</v>
+    <v>393.6</v>
+    <v>393.59</v>
     <v>41925320</v>
     <v>TYL</v>
     <v>TYLER TECHNOLOGIES, INC. (XNYS:TYL)</v>
-    <v>224569</v>
-    <v>248766</v>
+    <v>180578</v>
+    <v>251046</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -3126,7 +3126,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AG89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL100" sqref="AL100"/>
+      <selection pane="bottomRight" activeCell="AN102" sqref="AN102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5188,15 +5188,15 @@
       </c>
       <c r="AQ16" s="30">
         <f>AR101/AJ3</f>
-        <v>8.9288819459908204</v>
+        <v>8.9189084014519473</v>
       </c>
       <c r="AR16" s="30">
         <f>AR101/AJ28</f>
-        <v>100.58605146127618</v>
+        <v>100.47369702873843</v>
       </c>
       <c r="AS16" s="31">
         <f>AR101/AJ106</f>
-        <v>46.026905523701267</v>
+        <v>45.975493555774726</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="AR95" s="59" cm="1">
         <f t="array" ref="AR95">_FV(A1,"Beta")</f>
-        <v>0.83499999999999996</v>
+        <v>0.83550000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14373,7 +14373,7 @@
       </c>
       <c r="AR97" s="36">
         <f>(AR94)+((AR95)*(AR96-AR94))</f>
-        <v>7.689675E-2</v>
+        <v>7.6918275000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="AR100" s="34">
         <f>AR99/AR103</f>
-        <v>3.9716808938661141E-2</v>
+        <v>3.9759456304772477E-2</v>
       </c>
     </row>
     <row r="101" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14838,7 +14838,7 @@
       </c>
       <c r="AR101" s="50" cm="1">
         <f t="array" ref="AR101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16520253092</v>
+        <v>16501800000</v>
       </c>
     </row>
     <row r="102" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14955,7 +14955,7 @@
       </c>
       <c r="AR102" s="34">
         <f>AR101/AR103</f>
-        <v>0.96028319106133886</v>
+        <v>0.96024054369522749</v>
       </c>
     </row>
     <row r="103" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="AR103" s="38">
         <f>AR99+AR101</f>
-        <v>17203522092</v>
+        <v>17185069000</v>
       </c>
     </row>
     <row r="104" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15341,7 +15341,7 @@
       </c>
       <c r="AR105" s="26">
         <f>(AR100*AR92)+(AR102*AR97)</f>
-        <v>7.5286905308138585E-2</v>
+        <v>7.5305845856634204E-2</v>
       </c>
     </row>
     <row r="106" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15527,7 +15527,7 @@
       <c r="AN107" s="40"/>
       <c r="AO107" s="43">
         <f>AO106*(1+AR107)/(AR108-AR107)</f>
-        <v>10519663546.500252</v>
+        <v>10515702810.045727</v>
       </c>
       <c r="AP107" s="44" t="s">
         <v>148</v>
@@ -15558,7 +15558,7 @@
       </c>
       <c r="AO108" s="43">
         <f>AO107+AO106</f>
-        <v>11035762399.803993</v>
+        <v>11031801663.349468</v>
       </c>
       <c r="AP108" s="44" t="s">
         <v>144</v>
@@ -15568,7 +15568,7 @@
       </c>
       <c r="AR108" s="48">
         <f>AR105</f>
-        <v>7.5286905308138585E-2</v>
+        <v>7.5305845856634204E-2</v>
       </c>
     </row>
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="AL110" s="50">
         <f>NPV(AR108,AK108,AL108,AM108,AN108,AO108)</f>
-        <v>9112685368.0936165</v>
+        <v>9109191097.9941597</v>
       </c>
     </row>
     <row r="111" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15610,7 +15610,7 @@
       </c>
       <c r="AL113" s="50">
         <f>AL110+AL111-AL112</f>
-        <v>8640303368.0936165</v>
+        <v>8636809097.9941597</v>
       </c>
     </row>
     <row r="114" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="AL115" s="53">
         <f>AL113/AL114</f>
-        <v>190.33079017478502</v>
+        <v>190.25381750834256</v>
       </c>
     </row>
     <row r="116" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="AL116" s="58" cm="1">
         <f t="array" ref="AL116">_FV(A1,"Price")</f>
-        <v>394.04</v>
+        <v>393.6</v>
       </c>
     </row>
     <row r="117" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="AL117" s="55">
         <f>AL115/AL116-1</f>
-        <v>-0.51697596646334132</v>
+        <v>-0.51663156120847931</v>
       </c>
     </row>
     <row r="118" spans="37:38" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Tyler Technologies.xlsx
+++ b/Technology/Software/Tyler Technologies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567BB9AA-C5ED-AF49-9428-5E5003155AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807804B4-82E8-A54F-9E76-9D1C4805C71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2505,11 +2505,9 @@
     <v>Powered by Refinitiv</v>
     <v>425.80500000000001</v>
     <v>281.11</v>
-    <v>0.83550000000000002</v>
-    <v>6.32</v>
-    <v>1.6319E-2</v>
-    <v>-0.01</v>
-    <v>-2.5409999999999999E-5</v>
+    <v>0.82379999999999998</v>
+    <v>7.06</v>
+    <v>1.8001E-2</v>
     <v>USD</v>
     <v>Tyler Technologies, Inc. is a provider of information management solutions and services for the public sector. Its segments include Enterprise Software (ES) segment, which provides public sector entities with software systems and services to meet their information technology and automation needs for mission-critical back-office functions, such as financial management and education; planning, regulatory and maintenance; courts and justice; public safety; data and insights; appraisal and tax software solutions; land and vital records management software solutions; and property appraisal services, and Platform Technologies (PT) segment, which provides public sector entities with software solutions to perform transaction processing, streamline data processing, and improve operations and workflows such as digital government and payments solutions and development platform solutions. It provides systems and software that automate the appraisal and assessment of real and personal property.</v>
     <v>7229</v>
@@ -2517,25 +2515,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5101 Tennyson Pkwy, PLANO, TX, 75024 US</v>
-    <v>395.81</v>
+    <v>399.29</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.958333356248</v>
+    <v>45099.958333344533</v>
     <v>0</v>
-    <v>389.73</v>
-    <v>16501800000</v>
+    <v>391.32</v>
+    <v>16738684010</v>
     <v>TYLER TECHNOLOGIES, INC.</v>
     <v>TYLER TECHNOLOGIES, INC.</v>
-    <v>389.73</v>
-    <v>105.81829999999999</v>
-    <v>387.28</v>
-    <v>393.6</v>
-    <v>393.59</v>
+    <v>392.18</v>
+    <v>109.0889</v>
+    <v>392.19</v>
+    <v>399.25</v>
     <v>41925320</v>
     <v>TYL</v>
     <v>TYLER TECHNOLOGIES, INC. (XNYS:TYL)</v>
-    <v>180578</v>
-    <v>251046</v>
+    <v>275075</v>
+    <v>267823</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -2567,8 +2564,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2589,7 +2584,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2606,7 +2600,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2617,16 +2611,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2692,19 +2683,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2749,9 +2734,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2759,9 +2741,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3123,10 +3102,10 @@
   <dimension ref="A1:AS118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN102" sqref="AN102"/>
+      <selection pane="bottomRight" activeCell="AI115" sqref="AI115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5188,15 +5167,15 @@
       </c>
       <c r="AQ16" s="30">
         <f>AR101/AJ3</f>
-        <v>8.9189084014519473</v>
+        <v>9.0469396942175031</v>
       </c>
       <c r="AR16" s="30">
         <f>AR101/AJ28</f>
-        <v>100.47369702873843</v>
+        <v>101.91600103507062</v>
       </c>
       <c r="AS16" s="31">
         <f>AR101/AJ106</f>
-        <v>45.975493555774726</v>
+        <v>46.635473635234007</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14140,7 +14119,7 @@
       </c>
       <c r="AR95" s="59" cm="1">
         <f t="array" ref="AR95">_FV(A1,"Beta")</f>
-        <v>0.83550000000000002</v>
+        <v>0.82379999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14373,7 +14352,7 @@
       </c>
       <c r="AR97" s="36">
         <f>(AR94)+((AR95)*(AR96-AR94))</f>
-        <v>7.6918275000000008E-2</v>
+        <v>7.6414590000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14721,7 +14700,7 @@
       </c>
       <c r="AR100" s="34">
         <f>AR99/AR103</f>
-        <v>3.9759456304772477E-2</v>
+        <v>3.9218852192277838E-2</v>
       </c>
     </row>
     <row r="101" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14838,7 +14817,7 @@
       </c>
       <c r="AR101" s="50" cm="1">
         <f t="array" ref="AR101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16501800000</v>
+        <v>16738684010</v>
       </c>
     </row>
     <row r="102" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14955,7 +14934,7 @@
       </c>
       <c r="AR102" s="34">
         <f>AR101/AR103</f>
-        <v>0.96024054369522749</v>
+        <v>0.96078114780772217</v>
       </c>
     </row>
     <row r="103" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15072,7 +15051,7 @@
       </c>
       <c r="AR103" s="38">
         <f>AR99+AR101</f>
-        <v>17185069000</v>
+        <v>17421953010</v>
       </c>
     </row>
     <row r="104" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15341,7 +15320,7 @@
       </c>
       <c r="AR105" s="26">
         <f>(AR100*AR92)+(AR102*AR97)</f>
-        <v>7.5305845856634204E-2</v>
+        <v>7.4843838791775558E-2</v>
       </c>
     </row>
     <row r="106" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15527,7 +15506,7 @@
       <c r="AN107" s="40"/>
       <c r="AO107" s="43">
         <f>AO106*(1+AR107)/(AR108-AR107)</f>
-        <v>10515702810.045727</v>
+        <v>10613173813.6434</v>
       </c>
       <c r="AP107" s="44" t="s">
         <v>148</v>
@@ -15558,7 +15537,7 @@
       </c>
       <c r="AO108" s="43">
         <f>AO107+AO106</f>
-        <v>11031801663.349468</v>
+        <v>11129272666.947142</v>
       </c>
       <c r="AP108" s="44" t="s">
         <v>144</v>
@@ -15568,7 +15547,7 @@
       </c>
       <c r="AR108" s="48">
         <f>AR105</f>
-        <v>7.5305845856634204E-2</v>
+        <v>7.4843838791775558E-2</v>
       </c>
     </row>
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15583,7 +15562,7 @@
       </c>
       <c r="AL110" s="50">
         <f>NPV(AR108,AK108,AL108,AM108,AN108,AO108)</f>
-        <v>9109191097.9941597</v>
+        <v>9195183969.6057606</v>
       </c>
     </row>
     <row r="111" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15610,7 +15589,7 @@
       </c>
       <c r="AL113" s="50">
         <f>AL110+AL111-AL112</f>
-        <v>8636809097.9941597</v>
+        <v>8722801969.6057606</v>
       </c>
     </row>
     <row r="114" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15628,7 +15607,7 @@
       </c>
       <c r="AL115" s="53">
         <f>AL113/AL114</f>
-        <v>190.25381750834256</v>
+        <v>192.14809025618084</v>
       </c>
     </row>
     <row r="116" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15637,7 +15616,7 @@
       </c>
       <c r="AL116" s="58" cm="1">
         <f t="array" ref="AL116">_FV(A1,"Price")</f>
-        <v>393.6</v>
+        <v>399.25</v>
       </c>
     </row>
     <row r="117" spans="37:38" ht="20" x14ac:dyDescent="0.25">
@@ -15646,7 +15625,7 @@
       </c>
       <c r="AL117" s="55">
         <f>AL115/AL116-1</f>
-        <v>-0.51663156120847931</v>
+        <v>-0.51872738821244624</v>
       </c>
     </row>
     <row r="118" spans="37:38" ht="20" x14ac:dyDescent="0.25">
